--- a/pull_requests_summary.xlsx
+++ b/pull_requests_summary.xlsx
@@ -1,30 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sumgupta/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\code_samples\ollama_csv_streamlit_rag\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7CBA45EF-BE42-2846-BE44-B92ACA18F674}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB0B54BC-6633-479C-BDBE-2170315ED914}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="600" windowWidth="21660" windowHeight="14440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1 - pull_requests_summary" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet 1 - pull_requests_summary'!$A$1:$C$21</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
-  <si>
-    <t>pull_requests_summary</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Commit ID</t>
   </si>
@@ -11681,17 +11680,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -11853,39 +11846,36 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -13047,264 +13037,255 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B20" workbookViewId="0">
+      <selection activeCell="C21" sqref="A1:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="44" defaultRowHeight="13.2"/>
   <cols>
-    <col min="1" max="1" width="39.5" style="1" customWidth="1"/>
-    <col min="2" max="3" width="166.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.33203125" style="1"/>
+    <col min="1" max="1" width="44" style="2"/>
+    <col min="2" max="2" width="123" style="2" customWidth="1"/>
+    <col min="3" max="3" width="83.6640625" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="44" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-    </row>
-    <row r="2" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:3" ht="369.6">
+      <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" ht="140.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:3" ht="409.6">
+      <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="1:3" ht="213.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="6" t="s">
+      <c r="B3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="8" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="409.6">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="55.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="6" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="8" t="s">
+    </row>
+    <row r="5" spans="1:3" ht="409.6">
+      <c r="A5" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="8" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="409.6">
+      <c r="A6" s="6" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:3" ht="409.6">
+      <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="9"/>
-    </row>
-    <row r="8" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="8" t="s">
+    </row>
+    <row r="8" spans="1:3" ht="409.6">
+      <c r="A8" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6" t="s">
+      <c r="B8" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="8" t="s">
+    </row>
+    <row r="9" spans="1:3" ht="409.6">
+      <c r="A9" s="6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" ht="332" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="6" t="s">
+      <c r="B9" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="C9" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="8" t="s">
+    </row>
+    <row r="10" spans="1:3" ht="409.6">
+      <c r="A10" s="6" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" ht="133.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6" t="s">
+      <c r="B10" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C10" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="8" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="409.6">
+      <c r="A11" s="6" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="6" t="s">
+      <c r="B11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="7" t="s">
+      <c r="C11" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="8" t="s">
+    </row>
+    <row r="12" spans="1:3" ht="409.6">
+      <c r="A12" s="6" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6" t="s">
+      <c r="B12" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="C12" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="8" t="s">
+    </row>
+    <row r="13" spans="1:3" ht="409.6">
+      <c r="A13" s="6" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C13" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="8" t="s">
+    </row>
+    <row r="14" spans="1:3" ht="409.6">
+      <c r="A14" s="6" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" ht="272" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="6" t="s">
+      <c r="B14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="1:3" ht="224.4">
+      <c r="A15" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:3" ht="200" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
+      <c r="B15" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B16" s="7" t="s">
+      <c r="C15" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="8" t="s">
+    </row>
+    <row r="16" spans="1:3" ht="409.6">
+      <c r="A16" s="6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="6" t="s">
+      <c r="B16" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="7" t="s">
+      <c r="C16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="C17" s="8" t="s">
+    </row>
+    <row r="17" spans="1:3" ht="409.6">
+      <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="6" t="s">
+      <c r="B17" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B18" s="7" t="s">
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="1:3" ht="409.6">
+      <c r="A18" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="9"/>
-    </row>
-    <row r="19" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
+      <c r="B18" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="C18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="8" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="409.6">
+      <c r="A19" s="6" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="6" t="s">
+      <c r="B19" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B20" s="7" t="s">
+      <c r="C19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="8" t="s">
+    </row>
+    <row r="20" spans="1:3" ht="409.6">
+      <c r="A20" s="6" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" ht="409.6" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
+      <c r="B20" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="7" t="s">
+      <c r="C20" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="C21" s="8" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="409.6">
+      <c r="A21" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="380" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="6" t="s">
+      <c r="B21" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B22" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="9"/>
+      <c r="C21" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:C1"/>
-  </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" display="com.manh.cp.fw" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="C6" r:id="rId2" display="https://bitbucket.org/repo/9p65goR/images/3717427412-image.png" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="C8" r:id="rId3" display="https://bitbucket.org/repo/9p65goR/images/942596491-image.png" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="B9" r:id="rId4" display="logger.info" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="B14" r:id="rId5" display="qPurchaseOrderEntity.purchaseOrderId.in" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="C17" r:id="rId6" display="https://bitbucket.org/repo/9p65goR/images/1180704606-image.png" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="C19" r:id="rId7" display="https://bitbucket.org/repo/9p65goR/images/3950036050-image.png" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="B22" r:id="rId8" display="com.manh.cp.fw" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="B5" r:id="rId1" display="com.manh.cp.fw" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C5" r:id="rId2" display="https://bitbucket.org/repo/9p65goR/images/3717427412-image.png" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C7" r:id="rId3" display="https://bitbucket.org/repo/9p65goR/images/942596491-image.png" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="B8" r:id="rId4" display="logger.info" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="B13" r:id="rId5" display="qPurchaseOrderEntity.purchaseOrderId.in" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C16" r:id="rId6" display="https://bitbucket.org/repo/9p65goR/images/1180704606-image.png" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C18" r:id="rId7" display="https://bitbucket.org/repo/9p65goR/images/3950036050-image.png" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="B21" r:id="rId8" display="com.manh.cp.fw" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
-  <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.98425196850393704" right="0.98425196850393704" top="0.98425196850393704" bottom="0.98425196850393704" header="0.23622047244094491" footer="0.23622047244094491"/>
+  <pageSetup paperSize="9" scale="50" fitToHeight="0" orientation="landscape" r:id="rId9"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
